--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,43 +491,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>@my_promotions</t>
+          <t>@Accenture_answers_discussion</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My Promotions Group</t>
+          <t>Accenture_answers_discussion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-02-09T20:59:30.533155+00:00</t>
+          <t>2026-02-10T14:41:32.986460+00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2026-02-10T07:55:15.721243+00:00</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['14:00-16:00', '17:00-19:00']</t>
+          <t>['00:00-01:02']</t>
         </is>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -536,12 +532,1765 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[10, 8, 9, 17]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>@tcs_solution</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tcs_solution</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.027143+00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['00:42-01:44']</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>@NITWfreshers26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NITWfreshers26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.054446+00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['01:24-02:26']</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>@Mnit_jaipurfreshers2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mnit_jaipurfreshers2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.087850+00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['02:06-03:08']</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>@CrazyProgrammer_IT_IS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CrazyProgrammer_IT_IS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.116599+00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['02:48-03:50']</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>@nitwarangalfresher24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>nitwarangalfresher24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.151603+00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['03:30-04:32']</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>@nitw27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>nitw27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.180920+00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['04:12-05:14']</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>@nit_srinagar_2023_batch</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>nit_srinagar_2023_batch</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.213425+00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['04:54-05:56']</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>@chatter007</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>chatter007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.245914+00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['05:36-06:38']</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>@ABVIIITG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ABVIIITG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.279629+00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['06:18-07:20']</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>@nit_srinagar_2024_batch</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>nit_srinagar_2024_batch</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.313153+00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['07:00-08:02']</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>@nitgoastudents</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nitgoastudents</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.350392+00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['07:42-08:44']</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>@code2careerai</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>code2careerai</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.390248+00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['08:24-09:26']</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>@LWA_Walmart_CodeHers</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LWA_Walmart_CodeHers</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.424197+00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['09:06-10:08']</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>@deloitte_exam_answers</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>deloitte_exam_answers</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.461271+00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['09:48-10:50']</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>@cognizant_exam_discussion_groups</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cognizant_exam_discussion_groups</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.498783+00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['10:30-11:32']</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>@codechef_answers</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>codechef_answers</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.535066+00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['11:12-12:14']</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>@codeforces_answers</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>codeforces_answers</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.566085+00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['11:54-12:56']</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>@codechef_codeforces_leetcode_cp</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>codechef_codeforces_leetcode_cp</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.605121+00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['12:36-13:38']</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>@dsa_discussion_group</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>dsa_discussion_group</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.641905+00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['13:18-14:20']</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>@codehelpOA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>codehelpOA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:33.679964+00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['14:00-15:02']</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>@gfg_answers</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>gfg_answers</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:35.728323+00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2026-02-10T15:22:10.854300+00:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['14:42-15:44']</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[38, 175, 195, 191, 194, 181]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>@codevita_exam_solutions</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>codevita_exam_solutions</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:35.783041+00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['15:24-16:26']</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>@IIThyd21JUNEtest</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IIThyd21JUNEtest</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:35.825560+00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['16:06-17:08']</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>@hashtag_ai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>hashtag_ai</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:35.862221+00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['16:48-17:50']</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>@jobs_internships_group</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>jobs_internships_group</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:35.903046+00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['17:30-18:32']</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>@oadiscussionpoint</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>oadiscussionpoint</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:35.939736+00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['18:12-19:14']</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>@nitsurathkla</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>nitsurathkla</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:35.976262+00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['18:54-19:56']</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>@fresheroffcampusdiscussion</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>fresheroffcampusdiscussion</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:36.013267+00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['19:36-20:38']</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>@ton_pay_community</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ton_pay_community</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:36.058844+00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['20:18-21:20']</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>@unstop_group_exam</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>unstop_group_exam</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:36.100363+00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['21:00-22:02']</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>@freshershunt24</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>freshershunt24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:36.139725+00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['21:42-22:44']</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>@placement_lelo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>placement_lelo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:36.178407+00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['22:24-23:26']</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>@leetcode8</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>leetcode8</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2026-02-10T14:41:36.221455+00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['23:06-23:59']</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1673,7 +1673,11 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2026-02-11T15:37:18.455436+00:00</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>['15:24-16:26']</t>
@@ -1683,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1698,7 +1702,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[63, 31910, 19424]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1942,7 +1942,11 @@
       <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2026-02-11T19:44:28.436474+00:00</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>['18:54-19:56']</t>
@@ -1952,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1967,7 +1971,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[20, 15]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -892,9 +892,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-02-12T05:02:06.742929+00:00</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>['04:54-05:56']</t>
@@ -907,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -924,7 +928,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[24]</t>
         </is>
       </c>
     </row>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1161,9 +1161,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2026-02-12T08:55:06.170253+00:00</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>['08:24-09:26']</t>
@@ -1173,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1188,7 +1192,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[21, 24, 17]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1271,9 +1271,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2026-02-12T10:15:28.129547+00:00</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>['09:48-10:50']</t>
@@ -1283,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1298,12 +1302,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[169, 425]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[148]</t>
         </is>
       </c>
     </row>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2026-02-12T10:15:28.129547+00:00</t>
+          <t>2026-02-12T10:27:40.663968+00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[169, 425]</t>
+          <t>[169, 425, 439, 442, 438]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
@@ -1707,11 +1707,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2026-02-11T15:37:18.455436+00:00</t>
+          <t>2026-02-12T15:39:45.630203+00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[63, 31910, 19424]</t>
+          <t>[63, 31910, 19424, 30964, 30729]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1711,7 +1711,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2026-02-12T15:39:45.630203+00:00</t>
+          <t>2026-02-12T16:15:57.750784+00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[63, 31910, 19424, 30964, 30729]</t>
+          <t>[63, 31910, 19424, 30964, 30729, 19392, 29357]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1764,9 +1764,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2026-02-12T16:16:11.612753+00:00</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>['16:06-17:08']</t>
@@ -1776,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1791,12 +1795,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[4]</t>
         </is>
       </c>
     </row>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
@@ -2269,23 +2269,27 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2026-02-12T22:38:11.289567+00:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['22:24-23:26']</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>['22:24-23:26']</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
@@ -2301,7 +2305,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[103]</t>
         </is>
       </c>
     </row>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -676,23 +676,27 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:42:09.467932+00:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['02:06-03:08']</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['02:06-03:08']</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -703,12 +707,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3, 18, 12]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[15]</t>
         </is>
       </c>
     </row>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -953,9 +953,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2026-02-13T06:05:46.135770+00:00</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>['05:36-06:38']</t>
@@ -965,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -980,7 +984,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[31, 15, 39, 5]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:54.271941+00:00</t>
+          <t>2026-02-13T07:27:50.964363+00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1583,12 +1583,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[19]</t>
+          <t>[19, 32]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[27, 14]</t>
         </is>
       </c>
     </row>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2026-02-13T07:27:50.964363+00:00</t>
+          <t>2026-02-13T07:32:55.202461+00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[19, 32]</t>
+          <t>[19, 32, 25, 15]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1943,11 +1943,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2026-02-12T18:31:27.453512+00:00</t>
+          <t>2026-02-13T13:11:20.494625+00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[19733, 19735, 19728]</t>
+          <t>[19733, 19735, 19728, 24545, 24552]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,67 +434,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>group_name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>join_date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>current_phase</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>last_action_date</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>time_ranges</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link_enabled</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>reactions_count</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>replies_count</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>posts_count</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>reacted_message_ids</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>replied_message_ids</t>
         </is>
@@ -723,7 +735,11 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2026-02-13T23:49:27.876231+00:00</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>['23:20-24:00']</t>
@@ -733,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -748,7 +764,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[138845, 138840, 138838]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1216,7 +1216,11 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2026-02-14T07:23:03.045004+00:00</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>['07:20-08:00']</t>
@@ -1226,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1241,7 +1245,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[140]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1379,7 +1379,11 @@
       <c r="D18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2026-02-14T09:51:46.517739+00:00</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>['09:20-10:00']</t>
@@ -1389,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1404,7 +1408,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[14787, 14732]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -845,7 +845,11 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:57:30.037964+00:00</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>['10:50-11:40']</t>
@@ -855,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -870,7 +874,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[67725, 67732]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -1008,7 +1008,11 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-02-14T13:56:29.483534+00:00</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>['13:20-14:10']</t>
@@ -1018,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1033,7 +1037,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[68028, 68030]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -519,7 +519,11 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2026-02-14T17:00:59.092207+00:00</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>['17:00-19:30']</t>
@@ -529,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -544,7 +548,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[272297, 272284]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">

--- a/group_promotion_service/data/groups_progress.xlsx
+++ b/group_promotion_service/data/groups_progress.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-02-14T17:00:59.092207+00:00</t>
+          <t>2026-02-14T17:53:38.523130+00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -548,7 +548,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[272297, 272284]</t>
+          <t>[272297, 272284, 272295, 272300, 272286]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
